--- a/inc/flattened/createYaml/VTA-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTA-splitstem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA8D8B-B455-2345-BFCF-669DA29073E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FAE629-8715-AF4F-8D30-BF9157F2071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26840" yWindow="5060" windowWidth="26840" windowHeight="14860" activeTab="1" xr2:uid="{9DF8881B-D06D-0846-BEE5-CCB34DBF0AD0}"/>
   </bookViews>
@@ -6127,11 +6127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -13593,7 +13592,7 @@
       <c r="H246" t="s">
         <v>10</v>
       </c>
-      <c r="I246" s="3" t="s">
+      <c r="I246" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -13622,7 +13621,7 @@
       <c r="H247" t="s">
         <v>9</v>
       </c>
-      <c r="I247" s="3" t="s">
+      <c r="I247" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -13651,7 +13650,7 @@
       <c r="H248" t="s">
         <v>10</v>
       </c>
-      <c r="I248" s="3" t="s">
+      <c r="I248" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -13680,7 +13679,7 @@
       <c r="H249" t="s">
         <v>9</v>
       </c>
-      <c r="I249" s="3" t="s">
+      <c r="I249" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -13709,7 +13708,7 @@
       <c r="H250" t="s">
         <v>10</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="I250" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -13738,7 +13737,7 @@
       <c r="H251" t="s">
         <v>9</v>
       </c>
-      <c r="I251" s="3" t="s">
+      <c r="I251" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -13767,7 +13766,7 @@
       <c r="H252" t="s">
         <v>10</v>
       </c>
-      <c r="I252" s="3" t="s">
+      <c r="I252" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13796,7 +13795,7 @@
       <c r="H253" t="s">
         <v>9</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="I253" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -13825,7 +13824,7 @@
       <c r="H254" t="s">
         <v>10</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="I254" s="2" t="s">
         <v>346</v>
       </c>
     </row>
@@ -13854,7 +13853,7 @@
       <c r="H255" t="s">
         <v>9</v>
       </c>
-      <c r="I255" s="3" t="s">
+      <c r="I255" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -13883,7 +13882,7 @@
       <c r="H256" t="s">
         <v>10</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="I256" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -13912,7 +13911,7 @@
       <c r="H257" t="s">
         <v>9</v>
       </c>
-      <c r="I257" s="3" t="s">
+      <c r="I257" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -13941,7 +13940,7 @@
       <c r="H258" t="s">
         <v>10</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="I258" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13970,7 +13969,7 @@
       <c r="H259" t="s">
         <v>9</v>
       </c>
-      <c r="I259" s="3" t="s">
+      <c r="I259" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -13999,7 +13998,7 @@
       <c r="H260" t="s">
         <v>10</v>
       </c>
-      <c r="I260" s="3" t="s">
+      <c r="I260" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -14028,7 +14027,7 @@
       <c r="H261" t="s">
         <v>9</v>
       </c>
-      <c r="I261" s="3" t="s">
+      <c r="I261" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -14057,7 +14056,7 @@
       <c r="H262" t="s">
         <v>10</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="I262" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -14086,7 +14085,7 @@
       <c r="H263" t="s">
         <v>9</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="I263" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -14115,7 +14114,7 @@
       <c r="H264" t="s">
         <v>10</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="I264" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -14144,7 +14143,7 @@
       <c r="H265" t="s">
         <v>9</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="I265" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -14173,7 +14172,7 @@
       <c r="H266" t="s">
         <v>10</v>
       </c>
-      <c r="I266" s="3" t="s">
+      <c r="I266" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -14202,7 +14201,7 @@
       <c r="H267" t="s">
         <v>9</v>
       </c>
-      <c r="I267" s="3" t="s">
+      <c r="I267" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -14231,7 +14230,7 @@
       <c r="H268" t="s">
         <v>10</v>
       </c>
-      <c r="I268" s="3" t="s">
+      <c r="I268" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -14260,7 +14259,7 @@
       <c r="H269" t="s">
         <v>9</v>
       </c>
-      <c r="I269" s="3" t="s">
+      <c r="I269" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -14289,7 +14288,7 @@
       <c r="H270" t="s">
         <v>10</v>
       </c>
-      <c r="I270" s="3" t="s">
+      <c r="I270" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -14318,7 +14317,7 @@
       <c r="H271" t="s">
         <v>9</v>
       </c>
-      <c r="I271" s="3" t="s">
+      <c r="I271" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -14347,7 +14346,7 @@
       <c r="H272" t="s">
         <v>10</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="I272" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -14376,7 +14375,7 @@
       <c r="H273" t="s">
         <v>9</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="I273" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -14405,7 +14404,7 @@
       <c r="H274" t="s">
         <v>10</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="I274" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -14434,7 +14433,7 @@
       <c r="H275" t="s">
         <v>9</v>
       </c>
-      <c r="I275" s="3" t="s">
+      <c r="I275" s="2" t="s">
         <v>276</v>
       </c>
     </row>
@@ -14463,7 +14462,7 @@
       <c r="H276" t="s">
         <v>10</v>
       </c>
-      <c r="I276" s="3" t="s">
+      <c r="I276" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -14521,7 +14520,7 @@
       <c r="H278" t="s">
         <v>10</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="I278" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -14550,7 +14549,7 @@
       <c r="H279" t="s">
         <v>9</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="I279" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -14579,7 +14578,7 @@
       <c r="H280" t="s">
         <v>10</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="I280" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -14695,7 +14694,7 @@
       <c r="H284" t="s">
         <v>10</v>
       </c>
-      <c r="I284" s="3" t="s">
+      <c r="I284" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -14811,7 +14810,7 @@
       <c r="H288" t="s">
         <v>10</v>
       </c>
-      <c r="I288" s="3" t="s">
+      <c r="I288" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -15101,7 +15100,7 @@
       <c r="H298" t="s">
         <v>10</v>
       </c>
-      <c r="I298" s="3" t="s">
+      <c r="I298" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -15217,7 +15216,7 @@
       <c r="H302" t="s">
         <v>10</v>
       </c>
-      <c r="I302" s="3" t="s">
+      <c r="I302" s="2" t="s">
         <v>336</v>
       </c>
     </row>
@@ -15333,7 +15332,7 @@
       <c r="H306" t="s">
         <v>10</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="I306" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -15681,7 +15680,7 @@
       <c r="H318" t="s">
         <v>10</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="I318" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -15797,7 +15796,7 @@
       <c r="H322" t="s">
         <v>10</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="I322" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -15855,7 +15854,7 @@
       <c r="H324" t="s">
         <v>10</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="I324" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -15913,7 +15912,7 @@
       <c r="H326" t="s">
         <v>10</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="I326" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -15971,7 +15970,7 @@
       <c r="H328" t="s">
         <v>10</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="I328" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -16087,7 +16086,7 @@
       <c r="H332" t="s">
         <v>10</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="I332" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -16145,7 +16144,7 @@
       <c r="H334" t="s">
         <v>10</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="I334" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -16261,7 +16260,7 @@
       <c r="H338" t="s">
         <v>10</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="I338" s="2" t="s">
         <v>331</v>
       </c>
     </row>
@@ -16377,7 +16376,7 @@
       <c r="H342" t="s">
         <v>10</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="I342" s="2" t="s">
         <v>342</v>
       </c>
     </row>
@@ -16551,7 +16550,7 @@
       <c r="H348" t="s">
         <v>10</v>
       </c>
-      <c r="I348" s="3" t="s">
+      <c r="I348" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -16725,7 +16724,7 @@
       <c r="H354" t="s">
         <v>10</v>
       </c>
-      <c r="I354" s="3" t="s">
+      <c r="I354" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -16841,7 +16840,7 @@
       <c r="H358" t="s">
         <v>10</v>
       </c>
-      <c r="I358" s="3" t="s">
+      <c r="I358" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -16899,7 +16898,7 @@
       <c r="H360" t="s">
         <v>10</v>
       </c>
-      <c r="I360" s="3" t="s">
+      <c r="I360" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -17015,7 +17014,7 @@
       <c r="H364" t="s">
         <v>10</v>
       </c>
-      <c r="I364" s="3" t="s">
+      <c r="I364" s="2" t="s">
         <v>357</v>
       </c>
     </row>
@@ -17073,7 +17072,7 @@
       <c r="H366" t="s">
         <v>10</v>
       </c>
-      <c r="I366" s="3" t="s">
+      <c r="I366" s="2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -20669,7 +20668,7 @@
       <c r="H490" t="s">
         <v>10</v>
       </c>
-      <c r="I490" s="4" t="s">
+      <c r="I490" s="3" t="s">
         <v>942</v>
       </c>
       <c r="J490" s="1"/>
@@ -20699,7 +20698,7 @@
       <c r="H491" t="s">
         <v>9</v>
       </c>
-      <c r="I491" s="4" t="s">
+      <c r="I491" s="3" t="s">
         <v>676</v>
       </c>
       <c r="J491" s="1"/>
@@ -20729,7 +20728,7 @@
       <c r="H492" t="s">
         <v>10</v>
       </c>
-      <c r="I492" s="4" t="s">
+      <c r="I492" s="3" t="s">
         <v>943</v>
       </c>
       <c r="J492" s="1"/>
@@ -20759,7 +20758,7 @@
       <c r="H493" t="s">
         <v>9</v>
       </c>
-      <c r="I493" s="4" t="s">
+      <c r="I493" s="3" t="s">
         <v>677</v>
       </c>
       <c r="J493" s="1"/>
@@ -20789,7 +20788,7 @@
       <c r="H494" t="s">
         <v>10</v>
       </c>
-      <c r="I494" s="4" t="s">
+      <c r="I494" s="3" t="s">
         <v>944</v>
       </c>
       <c r="J494" s="1"/>
@@ -20819,7 +20818,7 @@
       <c r="H495" t="s">
         <v>9</v>
       </c>
-      <c r="I495" s="4" t="s">
+      <c r="I495" s="3" t="s">
         <v>678</v>
       </c>
       <c r="J495" s="1"/>
@@ -20849,7 +20848,7 @@
       <c r="H496" t="s">
         <v>10</v>
       </c>
-      <c r="I496" s="4" t="s">
+      <c r="I496" s="3" t="s">
         <v>945</v>
       </c>
       <c r="J496" s="1"/>
@@ -20879,7 +20878,7 @@
       <c r="H497" t="s">
         <v>9</v>
       </c>
-      <c r="I497" s="4" t="s">
+      <c r="I497" s="3" t="s">
         <v>679</v>
       </c>
       <c r="J497" s="1"/>
@@ -20909,7 +20908,7 @@
       <c r="H498" t="s">
         <v>10</v>
       </c>
-      <c r="I498" s="4" t="s">
+      <c r="I498" s="3" t="s">
         <v>946</v>
       </c>
       <c r="J498" s="1"/>
@@ -20939,7 +20938,7 @@
       <c r="H499" t="s">
         <v>9</v>
       </c>
-      <c r="I499" s="4" t="s">
+      <c r="I499" s="3" t="s">
         <v>680</v>
       </c>
       <c r="J499" s="1"/>
@@ -20969,7 +20968,7 @@
       <c r="H500" t="s">
         <v>10</v>
       </c>
-      <c r="I500" s="4" t="s">
+      <c r="I500" s="3" t="s">
         <v>947</v>
       </c>
       <c r="J500" s="1"/>
@@ -20999,7 +20998,7 @@
       <c r="H501" t="s">
         <v>9</v>
       </c>
-      <c r="I501" s="4" t="s">
+      <c r="I501" s="3" t="s">
         <v>681</v>
       </c>
       <c r="J501" s="1"/>
@@ -21029,7 +21028,7 @@
       <c r="H502" t="s">
         <v>10</v>
       </c>
-      <c r="I502" s="4" t="s">
+      <c r="I502" s="3" t="s">
         <v>948</v>
       </c>
       <c r="J502" s="1"/>
@@ -21059,7 +21058,7 @@
       <c r="H503" t="s">
         <v>9</v>
       </c>
-      <c r="I503" s="4" t="s">
+      <c r="I503" s="3" t="s">
         <v>682</v>
       </c>
       <c r="J503" s="1"/>
@@ -21089,7 +21088,7 @@
       <c r="H504" t="s">
         <v>10</v>
       </c>
-      <c r="I504" s="4" t="s">
+      <c r="I504" s="3" t="s">
         <v>949</v>
       </c>
       <c r="J504" s="1"/>
@@ -21119,7 +21118,7 @@
       <c r="H505" t="s">
         <v>9</v>
       </c>
-      <c r="I505" s="4" t="s">
+      <c r="I505" s="3" t="s">
         <v>683</v>
       </c>
       <c r="J505" s="1"/>
@@ -21149,7 +21148,7 @@
       <c r="H506" t="s">
         <v>10</v>
       </c>
-      <c r="I506" s="4" t="s">
+      <c r="I506" s="3" t="s">
         <v>950</v>
       </c>
       <c r="J506" s="1"/>
@@ -21179,7 +21178,7 @@
       <c r="H507" t="s">
         <v>9</v>
       </c>
-      <c r="I507" s="4" t="s">
+      <c r="I507" s="3" t="s">
         <v>684</v>
       </c>
       <c r="J507" s="1"/>
@@ -21209,7 +21208,7 @@
       <c r="H508" t="s">
         <v>10</v>
       </c>
-      <c r="I508" s="4" t="s">
+      <c r="I508" s="3" t="s">
         <v>951</v>
       </c>
       <c r="J508" s="1"/>
@@ -21239,7 +21238,7 @@
       <c r="H509" t="s">
         <v>9</v>
       </c>
-      <c r="I509" s="4" t="s">
+      <c r="I509" s="3" t="s">
         <v>685</v>
       </c>
       <c r="J509" s="1"/>
@@ -21269,7 +21268,7 @@
       <c r="H510" t="s">
         <v>10</v>
       </c>
-      <c r="I510" s="4" t="s">
+      <c r="I510" s="3" t="s">
         <v>952</v>
       </c>
       <c r="J510" s="1"/>
@@ -21299,7 +21298,7 @@
       <c r="H511" t="s">
         <v>9</v>
       </c>
-      <c r="I511" s="4" t="s">
+      <c r="I511" s="3" t="s">
         <v>686</v>
       </c>
       <c r="J511" s="1"/>
@@ -21329,7 +21328,7 @@
       <c r="H512" t="s">
         <v>10</v>
       </c>
-      <c r="I512" s="4" t="s">
+      <c r="I512" s="3" t="s">
         <v>945</v>
       </c>
       <c r="J512" s="1"/>
@@ -21359,7 +21358,7 @@
       <c r="H513" t="s">
         <v>9</v>
       </c>
-      <c r="I513" s="4" t="s">
+      <c r="I513" s="3" t="s">
         <v>679</v>
       </c>
       <c r="J513" s="1"/>
@@ -21389,7 +21388,7 @@
       <c r="H514" t="s">
         <v>10</v>
       </c>
-      <c r="I514" s="4" t="s">
+      <c r="I514" s="3" t="s">
         <v>946</v>
       </c>
       <c r="J514" s="1"/>
@@ -21419,7 +21418,7 @@
       <c r="H515" t="s">
         <v>9</v>
       </c>
-      <c r="I515" s="4" t="s">
+      <c r="I515" s="3" t="s">
         <v>680</v>
       </c>
       <c r="J515" s="1"/>
@@ -21449,7 +21448,7 @@
       <c r="H516" t="s">
         <v>10</v>
       </c>
-      <c r="I516" s="4" t="s">
+      <c r="I516" s="3" t="s">
         <v>953</v>
       </c>
       <c r="J516" s="1"/>
@@ -21479,7 +21478,7 @@
       <c r="H517" t="s">
         <v>9</v>
       </c>
-      <c r="I517" s="4" t="s">
+      <c r="I517" s="3" t="s">
         <v>687</v>
       </c>
       <c r="J517" s="1"/>
@@ -21509,7 +21508,7 @@
       <c r="H518" t="s">
         <v>10</v>
       </c>
-      <c r="I518" s="4" t="s">
+      <c r="I518" s="3" t="s">
         <v>948</v>
       </c>
       <c r="J518" s="1"/>
@@ -21539,7 +21538,7 @@
       <c r="H519" t="s">
         <v>9</v>
       </c>
-      <c r="I519" s="4" t="s">
+      <c r="I519" s="3" t="s">
         <v>682</v>
       </c>
       <c r="J519" s="1"/>
@@ -21569,7 +21568,7 @@
       <c r="H520" t="s">
         <v>10</v>
       </c>
-      <c r="I520" s="4" t="s">
+      <c r="I520" s="3" t="s">
         <v>949</v>
       </c>
       <c r="J520" s="1"/>
@@ -21599,7 +21598,7 @@
       <c r="H521" t="s">
         <v>9</v>
       </c>
-      <c r="I521" s="4" t="s">
+      <c r="I521" s="3" t="s">
         <v>683</v>
       </c>
       <c r="J521" s="1"/>
@@ -21629,7 +21628,7 @@
       <c r="H522" t="s">
         <v>10</v>
       </c>
-      <c r="I522" s="4" t="s">
+      <c r="I522" s="3" t="s">
         <v>954</v>
       </c>
       <c r="J522" s="1"/>
@@ -21659,7 +21658,7 @@
       <c r="H523" t="s">
         <v>9</v>
       </c>
-      <c r="I523" s="4" t="s">
+      <c r="I523" s="3" t="s">
         <v>688</v>
       </c>
       <c r="J523" s="1"/>
@@ -21689,7 +21688,7 @@
       <c r="H524" t="s">
         <v>10</v>
       </c>
-      <c r="I524" s="4" t="s">
+      <c r="I524" s="3" t="s">
         <v>955</v>
       </c>
       <c r="J524" s="1"/>
@@ -21719,7 +21718,7 @@
       <c r="H525" t="s">
         <v>9</v>
       </c>
-      <c r="I525" s="4" t="s">
+      <c r="I525" s="3" t="s">
         <v>689</v>
       </c>
       <c r="J525" s="1"/>
@@ -21749,7 +21748,7 @@
       <c r="H526" t="s">
         <v>10</v>
       </c>
-      <c r="I526" s="4" t="s">
+      <c r="I526" s="3" t="s">
         <v>956</v>
       </c>
       <c r="J526" s="1"/>
@@ -21779,7 +21778,7 @@
       <c r="H527" t="s">
         <v>9</v>
       </c>
-      <c r="I527" s="4" t="s">
+      <c r="I527" s="3" t="s">
         <v>690</v>
       </c>
       <c r="J527" s="1"/>
@@ -21809,7 +21808,7 @@
       <c r="H528" t="s">
         <v>10</v>
       </c>
-      <c r="I528" s="4" t="s">
+      <c r="I528" s="3" t="s">
         <v>957</v>
       </c>
       <c r="J528" s="1"/>
@@ -21839,7 +21838,7 @@
       <c r="H529" t="s">
         <v>9</v>
       </c>
-      <c r="I529" s="4" t="s">
+      <c r="I529" s="3" t="s">
         <v>691</v>
       </c>
       <c r="J529" s="1"/>
@@ -21869,7 +21868,7 @@
       <c r="H530" t="s">
         <v>10</v>
       </c>
-      <c r="I530" s="4" t="s">
+      <c r="I530" s="3" t="s">
         <v>958</v>
       </c>
       <c r="J530" s="1"/>
@@ -21899,7 +21898,7 @@
       <c r="H531" t="s">
         <v>9</v>
       </c>
-      <c r="I531" s="4" t="s">
+      <c r="I531" s="3" t="s">
         <v>692</v>
       </c>
       <c r="J531" s="1"/>
@@ -21929,7 +21928,7 @@
       <c r="H532" t="s">
         <v>10</v>
       </c>
-      <c r="I532" s="4" t="s">
+      <c r="I532" s="3" t="s">
         <v>959</v>
       </c>
       <c r="J532" s="1"/>
@@ -21959,7 +21958,7 @@
       <c r="H533" t="s">
         <v>9</v>
       </c>
-      <c r="I533" s="4" t="s">
+      <c r="I533" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J533" s="1"/>
@@ -21989,7 +21988,7 @@
       <c r="H534" t="s">
         <v>10</v>
       </c>
-      <c r="I534" s="4" t="s">
+      <c r="I534" s="3" t="s">
         <v>960</v>
       </c>
       <c r="J534" s="1"/>
@@ -22019,7 +22018,7 @@
       <c r="H535" t="s">
         <v>9</v>
       </c>
-      <c r="I535" s="4" t="s">
+      <c r="I535" s="3" t="s">
         <v>694</v>
       </c>
       <c r="J535" s="1"/>
@@ -22049,7 +22048,7 @@
       <c r="H536" t="s">
         <v>10</v>
       </c>
-      <c r="I536" s="4" t="s">
+      <c r="I536" s="3" t="s">
         <v>961</v>
       </c>
       <c r="J536" s="1"/>
@@ -22079,7 +22078,7 @@
       <c r="H537" t="s">
         <v>9</v>
       </c>
-      <c r="I537" s="4" t="s">
+      <c r="I537" s="3" t="s">
         <v>695</v>
       </c>
       <c r="J537" s="1"/>
@@ -22109,7 +22108,7 @@
       <c r="H538" t="s">
         <v>10</v>
       </c>
-      <c r="I538" s="4" t="s">
+      <c r="I538" s="3" t="s">
         <v>962</v>
       </c>
       <c r="J538" s="1"/>
@@ -22139,7 +22138,7 @@
       <c r="H539" t="s">
         <v>9</v>
       </c>
-      <c r="I539" s="4" t="s">
+      <c r="I539" s="3" t="s">
         <v>696</v>
       </c>
       <c r="J539" s="1"/>
@@ -22169,7 +22168,7 @@
       <c r="H540" t="s">
         <v>10</v>
       </c>
-      <c r="I540" s="4" t="s">
+      <c r="I540" s="3" t="s">
         <v>963</v>
       </c>
       <c r="J540" s="1"/>
@@ -22199,7 +22198,7 @@
       <c r="H541" t="s">
         <v>9</v>
       </c>
-      <c r="I541" s="4" t="s">
+      <c r="I541" s="3" t="s">
         <v>697</v>
       </c>
       <c r="J541" s="1"/>
@@ -22229,7 +22228,7 @@
       <c r="H542" t="s">
         <v>10</v>
       </c>
-      <c r="I542" s="4" t="s">
+      <c r="I542" s="3" t="s">
         <v>964</v>
       </c>
       <c r="J542" s="1"/>
@@ -22259,7 +22258,7 @@
       <c r="H543" t="s">
         <v>9</v>
       </c>
-      <c r="I543" s="4" t="s">
+      <c r="I543" s="3" t="s">
         <v>698</v>
       </c>
       <c r="J543" s="1"/>
@@ -22289,7 +22288,7 @@
       <c r="H544" t="s">
         <v>10</v>
       </c>
-      <c r="I544" s="4" t="s">
+      <c r="I544" s="3" t="s">
         <v>965</v>
       </c>
       <c r="J544" s="1"/>
@@ -22319,7 +22318,7 @@
       <c r="H545" t="s">
         <v>9</v>
       </c>
-      <c r="I545" s="4" t="s">
+      <c r="I545" s="3" t="s">
         <v>699</v>
       </c>
       <c r="J545" s="1"/>
@@ -22349,7 +22348,7 @@
       <c r="H546" t="s">
         <v>10</v>
       </c>
-      <c r="I546" s="4" t="s">
+      <c r="I546" s="3" t="s">
         <v>966</v>
       </c>
       <c r="J546" s="1"/>
@@ -22379,7 +22378,7 @@
       <c r="H547" t="s">
         <v>9</v>
       </c>
-      <c r="I547" s="4" t="s">
+      <c r="I547" s="3" t="s">
         <v>700</v>
       </c>
       <c r="J547" s="1"/>
@@ -22409,7 +22408,7 @@
       <c r="H548" t="s">
         <v>10</v>
       </c>
-      <c r="I548" s="4" t="s">
+      <c r="I548" s="3" t="s">
         <v>967</v>
       </c>
       <c r="J548" s="1"/>
@@ -22439,7 +22438,7 @@
       <c r="H549" t="s">
         <v>9</v>
       </c>
-      <c r="I549" s="4" t="s">
+      <c r="I549" s="3" t="s">
         <v>701</v>
       </c>
       <c r="J549" s="1"/>
@@ -22469,7 +22468,7 @@
       <c r="H550" t="s">
         <v>10</v>
       </c>
-      <c r="I550" s="4" t="s">
+      <c r="I550" s="3" t="s">
         <v>963</v>
       </c>
       <c r="J550" s="1"/>
@@ -22499,7 +22498,7 @@
       <c r="H551" t="s">
         <v>9</v>
       </c>
-      <c r="I551" s="4" t="s">
+      <c r="I551" s="3" t="s">
         <v>697</v>
       </c>
       <c r="J551" s="1"/>
@@ -22529,7 +22528,7 @@
       <c r="H552" t="s">
         <v>10</v>
       </c>
-      <c r="I552" s="4" t="s">
+      <c r="I552" s="3" t="s">
         <v>968</v>
       </c>
       <c r="J552" s="1"/>
@@ -22559,7 +22558,7 @@
       <c r="H553" t="s">
         <v>9</v>
       </c>
-      <c r="I553" s="4" t="s">
+      <c r="I553" s="3" t="s">
         <v>702</v>
       </c>
       <c r="J553" s="1"/>
@@ -22589,7 +22588,7 @@
       <c r="H554" t="s">
         <v>10</v>
       </c>
-      <c r="I554" s="4" t="s">
+      <c r="I554" s="3" t="s">
         <v>969</v>
       </c>
       <c r="J554" s="1"/>
@@ -22619,7 +22618,7 @@
       <c r="H555" t="s">
         <v>9</v>
       </c>
-      <c r="I555" s="4" t="s">
+      <c r="I555" s="3" t="s">
         <v>703</v>
       </c>
       <c r="J555" s="1"/>
@@ -22649,7 +22648,7 @@
       <c r="H556" t="s">
         <v>10</v>
       </c>
-      <c r="I556" s="4" t="s">
+      <c r="I556" s="3" t="s">
         <v>970</v>
       </c>
       <c r="J556" s="1"/>
@@ -22679,7 +22678,7 @@
       <c r="H557" t="s">
         <v>9</v>
       </c>
-      <c r="I557" s="4" t="s">
+      <c r="I557" s="3" t="s">
         <v>704</v>
       </c>
       <c r="J557" s="1"/>
@@ -22709,7 +22708,7 @@
       <c r="H558" t="s">
         <v>10</v>
       </c>
-      <c r="I558" s="4" t="s">
+      <c r="I558" s="3" t="s">
         <v>971</v>
       </c>
       <c r="J558" s="1"/>
@@ -22739,7 +22738,7 @@
       <c r="H559" t="s">
         <v>9</v>
       </c>
-      <c r="I559" s="4" t="s">
+      <c r="I559" s="3" t="s">
         <v>705</v>
       </c>
       <c r="J559" s="1"/>
@@ -22769,7 +22768,7 @@
       <c r="H560" t="s">
         <v>10</v>
       </c>
-      <c r="I560" s="4" t="s">
+      <c r="I560" s="3" t="s">
         <v>972</v>
       </c>
       <c r="J560" s="1"/>
@@ -22799,7 +22798,7 @@
       <c r="H561" t="s">
         <v>9</v>
       </c>
-      <c r="I561" s="4" t="s">
+      <c r="I561" s="3" t="s">
         <v>706</v>
       </c>
       <c r="J561" s="1"/>
@@ -22829,7 +22828,7 @@
       <c r="H562" t="s">
         <v>10</v>
       </c>
-      <c r="I562" s="4" t="s">
+      <c r="I562" s="3" t="s">
         <v>973</v>
       </c>
       <c r="J562" s="1"/>
@@ -22859,7 +22858,7 @@
       <c r="H563" t="s">
         <v>9</v>
       </c>
-      <c r="I563" s="4" t="s">
+      <c r="I563" s="3" t="s">
         <v>707</v>
       </c>
       <c r="J563" s="1"/>
@@ -22889,7 +22888,7 @@
       <c r="H564" t="s">
         <v>10</v>
       </c>
-      <c r="I564" s="4" t="s">
+      <c r="I564" s="3" t="s">
         <v>974</v>
       </c>
       <c r="J564" s="1"/>
@@ -22919,7 +22918,7 @@
       <c r="H565" t="s">
         <v>9</v>
       </c>
-      <c r="I565" s="4" t="s">
+      <c r="I565" s="3" t="s">
         <v>708</v>
       </c>
       <c r="J565" s="1"/>
@@ -22949,7 +22948,7 @@
       <c r="H566" t="s">
         <v>10</v>
       </c>
-      <c r="I566" s="4" t="s">
+      <c r="I566" s="3" t="s">
         <v>953</v>
       </c>
       <c r="J566" s="1"/>
@@ -22979,7 +22978,7 @@
       <c r="H567" t="s">
         <v>9</v>
       </c>
-      <c r="I567" s="4" t="s">
+      <c r="I567" s="3" t="s">
         <v>709</v>
       </c>
       <c r="J567" s="1"/>
@@ -23009,7 +23008,7 @@
       <c r="H568" t="s">
         <v>10</v>
       </c>
-      <c r="I568" s="4" t="s">
+      <c r="I568" s="3" t="s">
         <v>950</v>
       </c>
       <c r="J568" s="1"/>
@@ -23039,7 +23038,7 @@
       <c r="H569" t="s">
         <v>9</v>
       </c>
-      <c r="I569" s="4" t="s">
+      <c r="I569" s="3" t="s">
         <v>710</v>
       </c>
       <c r="J569" s="1"/>
@@ -23069,7 +23068,7 @@
       <c r="H570" t="s">
         <v>10</v>
       </c>
-      <c r="I570" s="4" t="s">
+      <c r="I570" s="3" t="s">
         <v>975</v>
       </c>
       <c r="J570" s="1"/>
@@ -23099,7 +23098,7 @@
       <c r="H571" t="s">
         <v>9</v>
       </c>
-      <c r="I571" s="4" t="s">
+      <c r="I571" s="3" t="s">
         <v>711</v>
       </c>
       <c r="J571" s="1"/>
@@ -23129,7 +23128,7 @@
       <c r="H572" t="s">
         <v>10</v>
       </c>
-      <c r="I572" s="4" t="s">
+      <c r="I572" s="3" t="s">
         <v>952</v>
       </c>
       <c r="J572" s="1"/>
@@ -23159,7 +23158,7 @@
       <c r="H573" t="s">
         <v>9</v>
       </c>
-      <c r="I573" s="4" t="s">
+      <c r="I573" s="3" t="s">
         <v>712</v>
       </c>
       <c r="J573" s="1"/>
@@ -23189,7 +23188,7 @@
       <c r="H574" t="s">
         <v>10</v>
       </c>
-      <c r="I574" s="4" t="s">
+      <c r="I574" s="3" t="s">
         <v>976</v>
       </c>
       <c r="J574" s="1"/>
@@ -23219,7 +23218,7 @@
       <c r="H575" t="s">
         <v>9</v>
       </c>
-      <c r="I575" s="4" t="s">
+      <c r="I575" s="3" t="s">
         <v>713</v>
       </c>
       <c r="J575" s="1"/>
@@ -23249,7 +23248,7 @@
       <c r="H576" t="s">
         <v>10</v>
       </c>
-      <c r="I576" s="4" t="s">
+      <c r="I576" s="3" t="s">
         <v>977</v>
       </c>
       <c r="J576" s="1"/>
@@ -23279,7 +23278,7 @@
       <c r="H577" t="s">
         <v>9</v>
       </c>
-      <c r="I577" s="4" t="s">
+      <c r="I577" s="3" t="s">
         <v>714</v>
       </c>
       <c r="J577" s="1"/>
@@ -23309,7 +23308,7 @@
       <c r="H578" t="s">
         <v>10</v>
       </c>
-      <c r="I578" s="4" t="s">
+      <c r="I578" s="3" t="s">
         <v>978</v>
       </c>
       <c r="J578" s="1"/>
@@ -23339,7 +23338,7 @@
       <c r="H579" t="s">
         <v>9</v>
       </c>
-      <c r="I579" s="4" t="s">
+      <c r="I579" s="3" t="s">
         <v>715</v>
       </c>
       <c r="J579" s="1"/>
@@ -23369,7 +23368,7 @@
       <c r="H580" t="s">
         <v>10</v>
       </c>
-      <c r="I580" s="4" t="s">
+      <c r="I580" s="3" t="s">
         <v>979</v>
       </c>
       <c r="J580" s="1"/>
@@ -23399,7 +23398,7 @@
       <c r="H581" t="s">
         <v>9</v>
       </c>
-      <c r="I581" s="4" t="s">
+      <c r="I581" s="3" t="s">
         <v>716</v>
       </c>
       <c r="J581" s="1"/>
@@ -23429,7 +23428,7 @@
       <c r="H582" t="s">
         <v>10</v>
       </c>
-      <c r="I582" s="4" t="s">
+      <c r="I582" s="3" t="s">
         <v>980</v>
       </c>
       <c r="J582" s="1"/>
@@ -23459,7 +23458,7 @@
       <c r="H583" t="s">
         <v>9</v>
       </c>
-      <c r="I583" s="4" t="s">
+      <c r="I583" s="3" t="s">
         <v>717</v>
       </c>
       <c r="J583" s="1"/>
@@ -23489,7 +23488,7 @@
       <c r="H584" t="s">
         <v>10</v>
       </c>
-      <c r="I584" s="4" t="s">
+      <c r="I584" s="3" t="s">
         <v>982</v>
       </c>
       <c r="J584" s="1"/>
@@ -23519,7 +23518,7 @@
       <c r="H585" t="s">
         <v>9</v>
       </c>
-      <c r="I585" s="4" t="s">
+      <c r="I585" s="3" t="s">
         <v>981</v>
       </c>
       <c r="J585" s="1"/>
@@ -23549,7 +23548,7 @@
       <c r="H586" t="s">
         <v>10</v>
       </c>
-      <c r="I586" s="4" t="s">
+      <c r="I586" s="3" t="s">
         <v>983</v>
       </c>
       <c r="J586" s="1"/>
@@ -23579,7 +23578,7 @@
       <c r="H587" t="s">
         <v>9</v>
       </c>
-      <c r="I587" s="4" t="s">
+      <c r="I587" s="3" t="s">
         <v>718</v>
       </c>
       <c r="J587" s="1"/>
@@ -23609,7 +23608,7 @@
       <c r="H588" t="s">
         <v>10</v>
       </c>
-      <c r="I588" s="4" t="s">
+      <c r="I588" s="3" t="s">
         <v>984</v>
       </c>
       <c r="J588" s="1"/>
@@ -23639,7 +23638,7 @@
       <c r="H589" t="s">
         <v>9</v>
       </c>
-      <c r="I589" s="4" t="s">
+      <c r="I589" s="3" t="s">
         <v>719</v>
       </c>
       <c r="J589" s="1"/>
@@ -23669,7 +23668,7 @@
       <c r="H590" t="s">
         <v>10</v>
       </c>
-      <c r="I590" s="4" t="s">
+      <c r="I590" s="3" t="s">
         <v>985</v>
       </c>
       <c r="J590" s="1"/>
@@ -23699,7 +23698,7 @@
       <c r="H591" t="s">
         <v>9</v>
       </c>
-      <c r="I591" s="4" t="s">
+      <c r="I591" s="3" t="s">
         <v>720</v>
       </c>
       <c r="J591" s="1"/>
@@ -23729,7 +23728,7 @@
       <c r="H592" t="s">
         <v>10</v>
       </c>
-      <c r="I592" s="4" t="s">
+      <c r="I592" s="3" t="s">
         <v>986</v>
       </c>
       <c r="J592" s="1"/>
@@ -23759,7 +23758,7 @@
       <c r="H593" t="s">
         <v>9</v>
       </c>
-      <c r="I593" s="4" t="s">
+      <c r="I593" s="3" t="s">
         <v>721</v>
       </c>
       <c r="J593" s="1"/>
@@ -23789,7 +23788,7 @@
       <c r="H594" t="s">
         <v>10</v>
       </c>
-      <c r="I594" s="4" t="s">
+      <c r="I594" s="3" t="s">
         <v>987</v>
       </c>
       <c r="J594" s="1"/>
@@ -23819,7 +23818,7 @@
       <c r="H595" t="s">
         <v>9</v>
       </c>
-      <c r="I595" s="4" t="s">
+      <c r="I595" s="3" t="s">
         <v>722</v>
       </c>
       <c r="J595" s="1"/>
@@ -23849,7 +23848,7 @@
       <c r="H596" t="s">
         <v>10</v>
       </c>
-      <c r="I596" s="4" t="s">
+      <c r="I596" s="3" t="s">
         <v>988</v>
       </c>
       <c r="J596" s="1"/>
@@ -23879,7 +23878,7 @@
       <c r="H597" t="s">
         <v>9</v>
       </c>
-      <c r="I597" s="4" t="s">
+      <c r="I597" s="3" t="s">
         <v>723</v>
       </c>
       <c r="J597" s="1"/>
@@ -23909,7 +23908,7 @@
       <c r="H598" t="s">
         <v>10</v>
       </c>
-      <c r="I598" s="4" t="s">
+      <c r="I598" s="3" t="s">
         <v>979</v>
       </c>
       <c r="J598" s="1"/>
@@ -23939,7 +23938,7 @@
       <c r="H599" t="s">
         <v>9</v>
       </c>
-      <c r="I599" s="4" t="s">
+      <c r="I599" s="3" t="s">
         <v>716</v>
       </c>
       <c r="J599" s="1"/>
@@ -23969,7 +23968,7 @@
       <c r="H600" t="s">
         <v>10</v>
       </c>
-      <c r="I600" s="4" t="s">
+      <c r="I600" s="3" t="s">
         <v>980</v>
       </c>
       <c r="J600" s="1"/>
@@ -23999,7 +23998,7 @@
       <c r="H601" t="s">
         <v>9</v>
       </c>
-      <c r="I601" s="4" t="s">
+      <c r="I601" s="3" t="s">
         <v>717</v>
       </c>
       <c r="J601" s="1"/>
@@ -24029,7 +24028,7 @@
       <c r="H602" t="s">
         <v>10</v>
       </c>
-      <c r="I602" s="4" t="s">
+      <c r="I602" s="3" t="s">
         <v>989</v>
       </c>
       <c r="J602" s="1"/>
@@ -24059,7 +24058,7 @@
       <c r="H603" t="s">
         <v>9</v>
       </c>
-      <c r="I603" s="4" t="s">
+      <c r="I603" s="3" t="s">
         <v>724</v>
       </c>
       <c r="J603" s="1"/>
@@ -24089,7 +24088,7 @@
       <c r="H604" t="s">
         <v>10</v>
       </c>
-      <c r="I604" s="4" t="s">
+      <c r="I604" s="3" t="s">
         <v>990</v>
       </c>
       <c r="J604" s="1"/>
@@ -24119,7 +24118,7 @@
       <c r="H605" t="s">
         <v>9</v>
       </c>
-      <c r="I605" s="4" t="s">
+      <c r="I605" s="3" t="s">
         <v>725</v>
       </c>
       <c r="J605" s="1"/>
@@ -24149,7 +24148,7 @@
       <c r="H606" t="s">
         <v>10</v>
       </c>
-      <c r="I606" s="4" t="s">
+      <c r="I606" s="3" t="s">
         <v>991</v>
       </c>
       <c r="J606" s="1"/>
@@ -24179,7 +24178,7 @@
       <c r="H607" t="s">
         <v>9</v>
       </c>
-      <c r="I607" s="4" t="s">
+      <c r="I607" s="3" t="s">
         <v>726</v>
       </c>
       <c r="J607" s="1"/>
@@ -24209,7 +24208,7 @@
       <c r="H608" t="s">
         <v>10</v>
       </c>
-      <c r="I608" s="4" t="s">
+      <c r="I608" s="3" t="s">
         <v>992</v>
       </c>
       <c r="J608" s="1"/>
@@ -24239,7 +24238,7 @@
       <c r="H609" t="s">
         <v>9</v>
       </c>
-      <c r="I609" s="4" t="s">
+      <c r="I609" s="3" t="s">
         <v>727</v>
       </c>
       <c r="J609" s="1"/>
@@ -24269,7 +24268,7 @@
       <c r="H610" t="s">
         <v>10</v>
       </c>
-      <c r="I610" s="4" t="s">
+      <c r="I610" s="3" t="s">
         <v>993</v>
       </c>
       <c r="J610" s="1"/>
@@ -24299,7 +24298,7 @@
       <c r="H611" t="s">
         <v>9</v>
       </c>
-      <c r="I611" s="4" t="s">
+      <c r="I611" s="3" t="s">
         <v>728</v>
       </c>
       <c r="J611" s="1"/>
@@ -31405,7 +31404,7 @@
       <c r="H856" t="s">
         <v>10</v>
       </c>
-      <c r="I856" s="4" t="s">
+      <c r="I856" s="3" t="s">
         <v>729</v>
       </c>
     </row>
@@ -31434,7 +31433,7 @@
       <c r="H857" t="s">
         <v>9</v>
       </c>
-      <c r="I857" s="4" t="s">
+      <c r="I857" s="3" t="s">
         <v>730</v>
       </c>
     </row>
@@ -31463,7 +31462,7 @@
       <c r="H858" t="s">
         <v>10</v>
       </c>
-      <c r="I858" s="4" t="s">
+      <c r="I858" s="3" t="s">
         <v>731</v>
       </c>
     </row>
@@ -31492,7 +31491,7 @@
       <c r="H859" t="s">
         <v>9</v>
       </c>
-      <c r="I859" s="4" t="s">
+      <c r="I859" s="3" t="s">
         <v>732</v>
       </c>
     </row>
@@ -31521,7 +31520,7 @@
       <c r="H860" t="s">
         <v>10</v>
       </c>
-      <c r="I860" s="4" t="s">
+      <c r="I860" s="3" t="s">
         <v>733</v>
       </c>
     </row>
@@ -31550,7 +31549,7 @@
       <c r="H861" t="s">
         <v>9</v>
       </c>
-      <c r="I861" s="4" t="s">
+      <c r="I861" s="3" t="s">
         <v>734</v>
       </c>
     </row>
@@ -31579,7 +31578,7 @@
       <c r="H862" t="s">
         <v>10</v>
       </c>
-      <c r="I862" s="4" t="s">
+      <c r="I862" s="3" t="s">
         <v>735</v>
       </c>
     </row>
@@ -31608,7 +31607,7 @@
       <c r="H863" t="s">
         <v>9</v>
       </c>
-      <c r="I863" s="4" t="s">
+      <c r="I863" s="3" t="s">
         <v>749</v>
       </c>
     </row>
@@ -31637,7 +31636,7 @@
       <c r="H864" t="s">
         <v>10</v>
       </c>
-      <c r="I864" s="4" t="s">
+      <c r="I864" s="3" t="s">
         <v>750</v>
       </c>
     </row>
@@ -31666,7 +31665,7 @@
       <c r="H865" t="s">
         <v>9</v>
       </c>
-      <c r="I865" s="4" t="s">
+      <c r="I865" s="3" t="s">
         <v>736</v>
       </c>
     </row>
@@ -31695,7 +31694,7 @@
       <c r="H866" t="s">
         <v>10</v>
       </c>
-      <c r="I866" s="4" t="s">
+      <c r="I866" s="3" t="s">
         <v>737</v>
       </c>
     </row>
@@ -31724,7 +31723,7 @@
       <c r="H867" t="s">
         <v>9</v>
       </c>
-      <c r="I867" s="4" t="s">
+      <c r="I867" s="3" t="s">
         <v>738</v>
       </c>
     </row>
@@ -31753,7 +31752,7 @@
       <c r="H868" t="s">
         <v>10</v>
       </c>
-      <c r="I868" s="4" t="s">
+      <c r="I868" s="3" t="s">
         <v>739</v>
       </c>
     </row>
@@ -31782,7 +31781,7 @@
       <c r="H869" t="s">
         <v>9</v>
       </c>
-      <c r="I869" s="4" t="s">
+      <c r="I869" s="3" t="s">
         <v>740</v>
       </c>
     </row>
@@ -31811,7 +31810,7 @@
       <c r="H870" t="s">
         <v>10</v>
       </c>
-      <c r="I870" s="4" t="s">
+      <c r="I870" s="3" t="s">
         <v>741</v>
       </c>
     </row>
@@ -31840,7 +31839,7 @@
       <c r="H871" t="s">
         <v>9</v>
       </c>
-      <c r="I871" s="4" t="s">
+      <c r="I871" s="3" t="s">
         <v>742</v>
       </c>
     </row>
@@ -31869,7 +31868,7 @@
       <c r="H872" t="s">
         <v>10</v>
       </c>
-      <c r="I872" s="4" t="s">
+      <c r="I872" s="3" t="s">
         <v>743</v>
       </c>
     </row>
@@ -31898,7 +31897,7 @@
       <c r="H873" t="s">
         <v>9</v>
       </c>
-      <c r="I873" s="4" t="s">
+      <c r="I873" s="3" t="s">
         <v>744</v>
       </c>
     </row>
@@ -31927,7 +31926,7 @@
       <c r="H874" t="s">
         <v>10</v>
       </c>
-      <c r="I874" s="4" t="s">
+      <c r="I874" s="3" t="s">
         <v>745</v>
       </c>
     </row>
@@ -31956,7 +31955,7 @@
       <c r="H875" t="s">
         <v>9</v>
       </c>
-      <c r="I875" s="4" t="s">
+      <c r="I875" s="3" t="s">
         <v>746</v>
       </c>
     </row>
@@ -31985,7 +31984,7 @@
       <c r="H876" t="s">
         <v>10</v>
       </c>
-      <c r="I876" s="4" t="s">
+      <c r="I876" s="3" t="s">
         <v>747</v>
       </c>
     </row>
@@ -32014,7 +32013,7 @@
       <c r="H877" t="s">
         <v>9</v>
       </c>
-      <c r="I877" s="4" t="s">
+      <c r="I877" s="3" t="s">
         <v>748</v>
       </c>
     </row>
@@ -32043,7 +32042,7 @@
       <c r="H878" t="s">
         <v>10</v>
       </c>
-      <c r="I878" s="4" t="s">
+      <c r="I878" s="3" t="s">
         <v>735</v>
       </c>
     </row>
@@ -32072,7 +32071,7 @@
       <c r="H879" t="s">
         <v>9</v>
       </c>
-      <c r="I879" s="4" t="s">
+      <c r="I879" s="3" t="s">
         <v>749</v>
       </c>
     </row>
@@ -32101,7 +32100,7 @@
       <c r="H880" t="s">
         <v>10</v>
       </c>
-      <c r="I880" s="4" t="s">
+      <c r="I880" s="3" t="s">
         <v>750</v>
       </c>
     </row>
@@ -32130,7 +32129,7 @@
       <c r="H881" t="s">
         <v>9</v>
       </c>
-      <c r="I881" s="4" t="s">
+      <c r="I881" s="3" t="s">
         <v>736</v>
       </c>
     </row>
@@ -32159,7 +32158,7 @@
       <c r="H882" t="s">
         <v>10</v>
       </c>
-      <c r="I882" s="4" t="s">
+      <c r="I882" s="3" t="s">
         <v>751</v>
       </c>
     </row>
@@ -32188,7 +32187,7 @@
       <c r="H883" t="s">
         <v>9</v>
       </c>
-      <c r="I883" s="4" t="s">
+      <c r="I883" s="3" t="s">
         <v>752</v>
       </c>
     </row>
@@ -32217,7 +32216,7 @@
       <c r="H884" t="s">
         <v>10</v>
       </c>
-      <c r="I884" s="4" t="s">
+      <c r="I884" s="3" t="s">
         <v>739</v>
       </c>
     </row>
@@ -32246,7 +32245,7 @@
       <c r="H885" t="s">
         <v>9</v>
       </c>
-      <c r="I885" s="4" t="s">
+      <c r="I885" s="3" t="s">
         <v>740</v>
       </c>
     </row>
@@ -32275,7 +32274,7 @@
       <c r="H886" t="s">
         <v>10</v>
       </c>
-      <c r="I886" s="4" t="s">
+      <c r="I886" s="3" t="s">
         <v>741</v>
       </c>
     </row>
@@ -32304,7 +32303,7 @@
       <c r="H887" t="s">
         <v>9</v>
       </c>
-      <c r="I887" s="4" t="s">
+      <c r="I887" s="3" t="s">
         <v>742</v>
       </c>
     </row>
@@ -32333,7 +32332,7 @@
       <c r="H888" t="s">
         <v>10</v>
       </c>
-      <c r="I888" s="4" t="s">
+      <c r="I888" s="3" t="s">
         <v>753</v>
       </c>
     </row>
@@ -32362,7 +32361,7 @@
       <c r="H889" t="s">
         <v>9</v>
       </c>
-      <c r="I889" s="4" t="s">
+      <c r="I889" s="3" t="s">
         <v>754</v>
       </c>
     </row>
@@ -32391,7 +32390,7 @@
       <c r="H890" t="s">
         <v>10</v>
       </c>
-      <c r="I890" s="4" t="s">
+      <c r="I890" s="3" t="s">
         <v>755</v>
       </c>
     </row>
@@ -32420,7 +32419,7 @@
       <c r="H891" t="s">
         <v>9</v>
       </c>
-      <c r="I891" s="4" t="s">
+      <c r="I891" s="3" t="s">
         <v>756</v>
       </c>
     </row>
@@ -32449,7 +32448,7 @@
       <c r="H892" t="s">
         <v>10</v>
       </c>
-      <c r="I892" s="4" t="s">
+      <c r="I892" s="3" t="s">
         <v>806</v>
       </c>
     </row>
@@ -32478,7 +32477,7 @@
       <c r="H893" t="s">
         <v>9</v>
       </c>
-      <c r="I893" s="4" t="s">
+      <c r="I893" s="3" t="s">
         <v>807</v>
       </c>
     </row>
@@ -32507,7 +32506,7 @@
       <c r="H894" t="s">
         <v>10</v>
       </c>
-      <c r="I894" s="4" t="s">
+      <c r="I894" s="3" t="s">
         <v>757</v>
       </c>
     </row>
@@ -32536,7 +32535,7 @@
       <c r="H895" t="s">
         <v>9</v>
       </c>
-      <c r="I895" s="4" t="s">
+      <c r="I895" s="3" t="s">
         <v>758</v>
       </c>
     </row>
@@ -32565,7 +32564,7 @@
       <c r="H896" t="s">
         <v>10</v>
       </c>
-      <c r="I896" s="4" t="s">
+      <c r="I896" s="3" t="s">
         <v>808</v>
       </c>
     </row>
@@ -32594,7 +32593,7 @@
       <c r="H897" t="s">
         <v>9</v>
       </c>
-      <c r="I897" s="4" t="s">
+      <c r="I897" s="3" t="s">
         <v>809</v>
       </c>
     </row>
@@ -32623,7 +32622,7 @@
       <c r="H898" t="s">
         <v>10</v>
       </c>
-      <c r="I898" s="4" t="s">
+      <c r="I898" s="3" t="s">
         <v>759</v>
       </c>
     </row>
@@ -32652,7 +32651,7 @@
       <c r="H899" t="s">
         <v>9</v>
       </c>
-      <c r="I899" s="4" t="s">
+      <c r="I899" s="3" t="s">
         <v>760</v>
       </c>
     </row>
@@ -32681,7 +32680,7 @@
       <c r="H900" t="s">
         <v>10</v>
       </c>
-      <c r="I900" s="4" t="s">
+      <c r="I900" s="3" t="s">
         <v>810</v>
       </c>
     </row>
@@ -32710,7 +32709,7 @@
       <c r="H901" t="s">
         <v>9</v>
       </c>
-      <c r="I901" s="4" t="s">
+      <c r="I901" s="3" t="s">
         <v>811</v>
       </c>
     </row>
@@ -32739,7 +32738,7 @@
       <c r="H902" t="s">
         <v>10</v>
       </c>
-      <c r="I902" s="4" t="s">
+      <c r="I902" s="3" t="s">
         <v>761</v>
       </c>
     </row>
@@ -32768,7 +32767,7 @@
       <c r="H903" t="s">
         <v>9</v>
       </c>
-      <c r="I903" s="4" t="s">
+      <c r="I903" s="3" t="s">
         <v>762</v>
       </c>
     </row>
@@ -32797,7 +32796,7 @@
       <c r="H904" t="s">
         <v>10</v>
       </c>
-      <c r="I904" s="4" t="s">
+      <c r="I904" s="3" t="s">
         <v>812</v>
       </c>
     </row>
@@ -32826,7 +32825,7 @@
       <c r="H905" t="s">
         <v>9</v>
       </c>
-      <c r="I905" s="4" t="s">
+      <c r="I905" s="3" t="s">
         <v>813</v>
       </c>
     </row>
@@ -32855,7 +32854,7 @@
       <c r="H906" t="s">
         <v>10</v>
       </c>
-      <c r="I906" s="4" t="s">
+      <c r="I906" s="3" t="s">
         <v>763</v>
       </c>
     </row>
@@ -32884,7 +32883,7 @@
       <c r="H907" t="s">
         <v>9</v>
       </c>
-      <c r="I907" s="4" t="s">
+      <c r="I907" s="3" t="s">
         <v>764</v>
       </c>
     </row>
@@ -32913,7 +32912,7 @@
       <c r="H908" t="s">
         <v>10</v>
       </c>
-      <c r="I908" s="4" t="s">
+      <c r="I908" s="3" t="s">
         <v>765</v>
       </c>
     </row>
@@ -32942,7 +32941,7 @@
       <c r="H909" t="s">
         <v>9</v>
       </c>
-      <c r="I909" s="4" t="s">
+      <c r="I909" s="3" t="s">
         <v>814</v>
       </c>
     </row>
@@ -32971,7 +32970,7 @@
       <c r="H910" t="s">
         <v>10</v>
       </c>
-      <c r="I910" s="4" t="s">
+      <c r="I910" s="3" t="s">
         <v>815</v>
       </c>
     </row>
@@ -33000,7 +32999,7 @@
       <c r="H911" t="s">
         <v>9</v>
       </c>
-      <c r="I911" s="4" t="s">
+      <c r="I911" s="3" t="s">
         <v>816</v>
       </c>
     </row>
@@ -33029,7 +33028,7 @@
       <c r="H912" t="s">
         <v>10</v>
       </c>
-      <c r="I912" s="4" t="s">
+      <c r="I912" s="3" t="s">
         <v>766</v>
       </c>
     </row>
@@ -33058,7 +33057,7 @@
       <c r="H913" t="s">
         <v>9</v>
       </c>
-      <c r="I913" s="4" t="s">
+      <c r="I913" s="3" t="s">
         <v>767</v>
       </c>
     </row>
@@ -33087,7 +33086,7 @@
       <c r="H914" t="s">
         <v>10</v>
       </c>
-      <c r="I914" s="4" t="s">
+      <c r="I914" s="3" t="s">
         <v>817</v>
       </c>
     </row>
@@ -33116,7 +33115,7 @@
       <c r="H915" t="s">
         <v>9</v>
       </c>
-      <c r="I915" s="4" t="s">
+      <c r="I915" s="3" t="s">
         <v>818</v>
       </c>
     </row>
@@ -33145,7 +33144,7 @@
       <c r="H916" t="s">
         <v>10</v>
       </c>
-      <c r="I916" s="4" t="s">
+      <c r="I916" s="3" t="s">
         <v>763</v>
       </c>
     </row>
@@ -33174,7 +33173,7 @@
       <c r="H917" t="s">
         <v>9</v>
       </c>
-      <c r="I917" s="4" t="s">
+      <c r="I917" s="3" t="s">
         <v>764</v>
       </c>
     </row>
@@ -33203,7 +33202,7 @@
       <c r="H918" t="s">
         <v>10</v>
       </c>
-      <c r="I918" s="4" t="s">
+      <c r="I918" s="3" t="s">
         <v>768</v>
       </c>
     </row>
@@ -33232,7 +33231,7 @@
       <c r="H919" t="s">
         <v>9</v>
       </c>
-      <c r="I919" s="4" t="s">
+      <c r="I919" s="3" t="s">
         <v>769</v>
       </c>
     </row>
@@ -33261,7 +33260,7 @@
       <c r="H920" t="s">
         <v>10</v>
       </c>
-      <c r="I920" s="4" t="s">
+      <c r="I920" s="3" t="s">
         <v>770</v>
       </c>
     </row>
@@ -33290,7 +33289,7 @@
       <c r="H921" t="s">
         <v>9</v>
       </c>
-      <c r="I921" s="4" t="s">
+      <c r="I921" s="3" t="s">
         <v>771</v>
       </c>
     </row>
@@ -33319,7 +33318,7 @@
       <c r="H922" t="s">
         <v>10</v>
       </c>
-      <c r="I922" s="4" t="s">
+      <c r="I922" s="3" t="s">
         <v>772</v>
       </c>
     </row>
@@ -33348,7 +33347,7 @@
       <c r="H923" t="s">
         <v>9</v>
       </c>
-      <c r="I923" s="4" t="s">
+      <c r="I923" s="3" t="s">
         <v>773</v>
       </c>
     </row>
@@ -33377,7 +33376,7 @@
       <c r="H924" t="s">
         <v>10</v>
       </c>
-      <c r="I924" s="4" t="s">
+      <c r="I924" s="3" t="s">
         <v>819</v>
       </c>
     </row>
@@ -33406,7 +33405,7 @@
       <c r="H925" t="s">
         <v>9</v>
       </c>
-      <c r="I925" s="4" t="s">
+      <c r="I925" s="3" t="s">
         <v>820</v>
       </c>
     </row>
@@ -33435,7 +33434,7 @@
       <c r="H926" t="s">
         <v>10</v>
       </c>
-      <c r="I926" s="4" t="s">
+      <c r="I926" s="3" t="s">
         <v>774</v>
       </c>
     </row>
@@ -33464,7 +33463,7 @@
       <c r="H927" t="s">
         <v>9</v>
       </c>
-      <c r="I927" s="4" t="s">
+      <c r="I927" s="3" t="s">
         <v>775</v>
       </c>
     </row>
@@ -33493,7 +33492,7 @@
       <c r="H928" t="s">
         <v>10</v>
       </c>
-      <c r="I928" s="4" t="s">
+      <c r="I928" s="3" t="s">
         <v>776</v>
       </c>
     </row>
@@ -33522,7 +33521,7 @@
       <c r="H929" t="s">
         <v>9</v>
       </c>
-      <c r="I929" s="4" t="s">
+      <c r="I929" s="3" t="s">
         <v>777</v>
       </c>
     </row>
@@ -33551,7 +33550,7 @@
       <c r="H930" t="s">
         <v>10</v>
       </c>
-      <c r="I930" s="4" t="s">
+      <c r="I930" s="3" t="s">
         <v>778</v>
       </c>
     </row>
@@ -33580,7 +33579,7 @@
       <c r="H931" t="s">
         <v>9</v>
       </c>
-      <c r="I931" s="4" t="s">
+      <c r="I931" s="3" t="s">
         <v>779</v>
       </c>
     </row>
@@ -33609,7 +33608,7 @@
       <c r="H932" t="s">
         <v>10</v>
       </c>
-      <c r="I932" s="4" t="s">
+      <c r="I932" s="3" t="s">
         <v>780</v>
       </c>
     </row>
@@ -33638,7 +33637,7 @@
       <c r="H933" t="s">
         <v>9</v>
       </c>
-      <c r="I933" s="4" t="s">
+      <c r="I933" s="3" t="s">
         <v>781</v>
       </c>
     </row>
@@ -33667,7 +33666,7 @@
       <c r="H934" t="s">
         <v>10</v>
       </c>
-      <c r="I934" s="4" t="s">
+      <c r="I934" s="3" t="s">
         <v>743</v>
       </c>
     </row>
@@ -33696,7 +33695,7 @@
       <c r="H935" t="s">
         <v>9</v>
       </c>
-      <c r="I935" s="4" t="s">
+      <c r="I935" s="3" t="s">
         <v>782</v>
       </c>
     </row>
@@ -33725,7 +33724,7 @@
       <c r="H936" t="s">
         <v>10</v>
       </c>
-      <c r="I936" s="4" t="s">
+      <c r="I936" s="3" t="s">
         <v>783</v>
       </c>
     </row>
@@ -33754,7 +33753,7 @@
       <c r="H937" t="s">
         <v>9</v>
       </c>
-      <c r="I937" s="4" t="s">
+      <c r="I937" s="3" t="s">
         <v>784</v>
       </c>
     </row>
@@ -33783,7 +33782,7 @@
       <c r="H938" t="s">
         <v>10</v>
       </c>
-      <c r="I938" s="4" t="s">
+      <c r="I938" s="3" t="s">
         <v>747</v>
       </c>
     </row>
@@ -33812,7 +33811,7 @@
       <c r="H939" t="s">
         <v>9</v>
       </c>
-      <c r="I939" s="4" t="s">
+      <c r="I939" s="3" t="s">
         <v>785</v>
       </c>
     </row>
@@ -33841,7 +33840,7 @@
       <c r="H940" t="s">
         <v>10</v>
       </c>
-      <c r="I940" s="4" t="s">
+      <c r="I940" s="3" t="s">
         <v>821</v>
       </c>
     </row>
@@ -33870,7 +33869,7 @@
       <c r="H941" t="s">
         <v>9</v>
       </c>
-      <c r="I941" s="4" t="s">
+      <c r="I941" s="3" t="s">
         <v>822</v>
       </c>
     </row>
@@ -33899,7 +33898,7 @@
       <c r="H942" t="s">
         <v>10</v>
       </c>
-      <c r="I942" s="4" t="s">
+      <c r="I942" s="3" t="s">
         <v>786</v>
       </c>
     </row>
@@ -33928,7 +33927,7 @@
       <c r="H943" t="s">
         <v>9</v>
       </c>
-      <c r="I943" s="4" t="s">
+      <c r="I943" s="3" t="s">
         <v>787</v>
       </c>
     </row>
@@ -33957,7 +33956,7 @@
       <c r="H944" t="s">
         <v>10</v>
       </c>
-      <c r="I944" s="4" t="s">
+      <c r="I944" s="3" t="s">
         <v>788</v>
       </c>
     </row>
@@ -33986,7 +33985,7 @@
       <c r="H945" t="s">
         <v>9</v>
       </c>
-      <c r="I945" s="4" t="s">
+      <c r="I945" s="3" t="s">
         <v>789</v>
       </c>
     </row>
@@ -34015,7 +34014,7 @@
       <c r="H946" t="s">
         <v>10</v>
       </c>
-      <c r="I946" s="4" t="s">
+      <c r="I946" s="3" t="s">
         <v>790</v>
       </c>
     </row>
@@ -34044,7 +34043,7 @@
       <c r="H947" t="s">
         <v>9</v>
       </c>
-      <c r="I947" s="4" t="s">
+      <c r="I947" s="3" t="s">
         <v>791</v>
       </c>
     </row>
@@ -34073,7 +34072,7 @@
       <c r="H948" t="s">
         <v>10</v>
       </c>
-      <c r="I948" s="4" t="s">
+      <c r="I948" s="3" t="s">
         <v>792</v>
       </c>
     </row>
@@ -34102,7 +34101,7 @@
       <c r="H949" t="s">
         <v>9</v>
       </c>
-      <c r="I949" s="4" t="s">
+      <c r="I949" s="3" t="s">
         <v>793</v>
       </c>
     </row>
@@ -34131,7 +34130,7 @@
       <c r="H950" t="s">
         <v>10</v>
       </c>
-      <c r="I950" s="4" t="s">
+      <c r="I950" s="3" t="s">
         <v>823</v>
       </c>
     </row>
@@ -34160,7 +34159,7 @@
       <c r="H951" t="s">
         <v>9</v>
       </c>
-      <c r="I951" s="4" t="s">
+      <c r="I951" s="3" t="s">
         <v>824</v>
       </c>
     </row>
@@ -34189,7 +34188,7 @@
       <c r="H952" t="s">
         <v>10</v>
       </c>
-      <c r="I952" s="4" t="s">
+      <c r="I952" s="3" t="s">
         <v>794</v>
       </c>
     </row>
@@ -34218,7 +34217,7 @@
       <c r="H953" t="s">
         <v>9</v>
       </c>
-      <c r="I953" s="4" t="s">
+      <c r="I953" s="3" t="s">
         <v>795</v>
       </c>
     </row>
@@ -34247,7 +34246,7 @@
       <c r="H954" t="s">
         <v>10</v>
       </c>
-      <c r="I954" s="4" t="s">
+      <c r="I954" s="3" t="s">
         <v>825</v>
       </c>
     </row>
@@ -34276,7 +34275,7 @@
       <c r="H955" t="s">
         <v>9</v>
       </c>
-      <c r="I955" s="4" t="s">
+      <c r="I955" s="3" t="s">
         <v>826</v>
       </c>
     </row>
@@ -34305,7 +34304,7 @@
       <c r="H956" t="s">
         <v>10</v>
       </c>
-      <c r="I956" s="4" t="s">
+      <c r="I956" s="3" t="s">
         <v>827</v>
       </c>
     </row>
@@ -34334,7 +34333,7 @@
       <c r="H957" t="s">
         <v>9</v>
       </c>
-      <c r="I957" s="4" t="s">
+      <c r="I957" s="3" t="s">
         <v>828</v>
       </c>
     </row>
@@ -34363,7 +34362,7 @@
       <c r="H958" t="s">
         <v>10</v>
       </c>
-      <c r="I958" s="4" t="s">
+      <c r="I958" s="3" t="s">
         <v>796</v>
       </c>
     </row>
@@ -34392,7 +34391,7 @@
       <c r="H959" t="s">
         <v>9</v>
       </c>
-      <c r="I959" s="4" t="s">
+      <c r="I959" s="3" t="s">
         <v>797</v>
       </c>
     </row>
@@ -34421,7 +34420,7 @@
       <c r="H960" t="s">
         <v>10</v>
       </c>
-      <c r="I960" s="4" t="s">
+      <c r="I960" s="3" t="s">
         <v>829</v>
       </c>
     </row>
@@ -34450,7 +34449,7 @@
       <c r="H961" t="s">
         <v>9</v>
       </c>
-      <c r="I961" s="4" t="s">
+      <c r="I961" s="3" t="s">
         <v>830</v>
       </c>
     </row>
@@ -34479,7 +34478,7 @@
       <c r="H962" t="s">
         <v>10</v>
       </c>
-      <c r="I962" s="4" t="s">
+      <c r="I962" s="3" t="s">
         <v>798</v>
       </c>
     </row>
@@ -34508,7 +34507,7 @@
       <c r="H963" t="s">
         <v>9</v>
       </c>
-      <c r="I963" s="4" t="s">
+      <c r="I963" s="3" t="s">
         <v>799</v>
       </c>
     </row>
@@ -34537,7 +34536,7 @@
       <c r="H964" t="s">
         <v>10</v>
       </c>
-      <c r="I964" s="4" t="s">
+      <c r="I964" s="3" t="s">
         <v>790</v>
       </c>
     </row>
@@ -34566,7 +34565,7 @@
       <c r="H965" t="s">
         <v>9</v>
       </c>
-      <c r="I965" s="4" t="s">
+      <c r="I965" s="3" t="s">
         <v>791</v>
       </c>
     </row>
@@ -34595,7 +34594,7 @@
       <c r="H966" t="s">
         <v>10</v>
       </c>
-      <c r="I966" s="4" t="s">
+      <c r="I966" s="3" t="s">
         <v>792</v>
       </c>
     </row>
@@ -34624,7 +34623,7 @@
       <c r="H967" t="s">
         <v>9</v>
       </c>
-      <c r="I967" s="4" t="s">
+      <c r="I967" s="3" t="s">
         <v>793</v>
       </c>
     </row>
@@ -34653,7 +34652,7 @@
       <c r="H968" t="s">
         <v>10</v>
       </c>
-      <c r="I968" s="4" t="s">
+      <c r="I968" s="3" t="s">
         <v>831</v>
       </c>
     </row>
@@ -34682,7 +34681,7 @@
       <c r="H969" t="s">
         <v>9</v>
       </c>
-      <c r="I969" s="4" t="s">
+      <c r="I969" s="3" t="s">
         <v>832</v>
       </c>
     </row>
@@ -34711,7 +34710,7 @@
       <c r="H970" t="s">
         <v>10</v>
       </c>
-      <c r="I970" s="4" t="s">
+      <c r="I970" s="3" t="s">
         <v>800</v>
       </c>
     </row>
@@ -34740,7 +34739,7 @@
       <c r="H971" t="s">
         <v>9</v>
       </c>
-      <c r="I971" s="4" t="s">
+      <c r="I971" s="3" t="s">
         <v>801</v>
       </c>
     </row>
@@ -34769,7 +34768,7 @@
       <c r="H972" t="s">
         <v>10</v>
       </c>
-      <c r="I972" s="4" t="s">
+      <c r="I972" s="3" t="s">
         <v>833</v>
       </c>
     </row>
@@ -34798,7 +34797,7 @@
       <c r="H973" t="s">
         <v>9</v>
       </c>
-      <c r="I973" s="4" t="s">
+      <c r="I973" s="3" t="s">
         <v>834</v>
       </c>
     </row>
@@ -34827,7 +34826,7 @@
       <c r="H974" t="s">
         <v>10</v>
       </c>
-      <c r="I974" s="4" t="s">
+      <c r="I974" s="3" t="s">
         <v>802</v>
       </c>
     </row>
@@ -34856,7 +34855,7 @@
       <c r="H975" t="s">
         <v>9</v>
       </c>
-      <c r="I975" s="4" t="s">
+      <c r="I975" s="3" t="s">
         <v>803</v>
       </c>
     </row>
@@ -34885,7 +34884,7 @@
       <c r="H976" t="s">
         <v>10</v>
       </c>
-      <c r="I976" s="4" t="s">
+      <c r="I976" s="3" t="s">
         <v>804</v>
       </c>
     </row>
@@ -34914,7 +34913,7 @@
       <c r="H977" t="s">
         <v>9</v>
       </c>
-      <c r="I977" s="4" t="s">
+      <c r="I977" s="3" t="s">
         <v>805</v>
       </c>
     </row>

--- a/inc/flattened/createYaml/VTA-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTA-splitstem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FAE629-8715-AF4F-8D30-BF9157F2071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494DBAA-357D-984F-8898-1BFBFB68F28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26840" yWindow="5060" windowWidth="26840" windowHeight="14860" activeTab="1" xr2:uid="{9DF8881B-D06D-0846-BEE5-CCB34DBF0AD0}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{9DF8881B-D06D-0846-BEE5-CCB34DBF0AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="VTA_IND" sheetId="1" r:id="rId1"/>
@@ -6107,12 +6107,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6127,11 +6133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6448,8 +6455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DB255-9D86-DF46-82C2-AB3642BC0317}">
   <dimension ref="A1:J1831"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="A1127" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I1779" sqref="I1779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40220,7 +40227,7 @@
       <c r="H1160" t="s">
         <v>10</v>
       </c>
-      <c r="I1160" s="2" t="s">
+      <c r="I1160" s="4" t="s">
         <v>1672</v>
       </c>
     </row>
@@ -40249,7 +40256,7 @@
       <c r="H1161" t="s">
         <v>9</v>
       </c>
-      <c r="I1161" s="2" t="s">
+      <c r="I1161" s="4" t="s">
         <v>1673</v>
       </c>
     </row>
@@ -59701,7 +59708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F8B8D-B51F-F84E-96B1-1FA656EE28D3}">
   <dimension ref="A1:J319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A321" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/inc/flattened/createYaml/VTA-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTA-splitstem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767041EF-F551-EA48-8D88-6345F0E62F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC524DC-B771-3647-AB0D-00CCB7BE62F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{9DF8881B-D06D-0846-BEE5-CCB34DBF0AD0}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{9DF8881B-D06D-0846-BEE5-CCB34DBF0AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="VTA_IND" sheetId="1" r:id="rId1"/>
@@ -6413,7 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DB255-9D86-DF46-82C2-AB3642BC0317}">
   <dimension ref="A1:J1831"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1260" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D1267" zoomScale="150" workbookViewId="0">
       <selection activeCell="I1153" sqref="I1153"/>
     </sheetView>
   </sheetViews>
@@ -59666,7 +59666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F8B8D-B51F-F84E-96B1-1FA656EE28D3}">
   <dimension ref="A1:J319"/>
   <sheetViews>
-    <sheetView topLeftCell="A321" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/inc/flattened/createYaml/VTA-splitstem.xlsx
+++ b/inc/flattened/createYaml/VTA-splitstem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/giellalt/lang-ciw/inc/flattened/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726BE63-8A13-D140-BB68-751C9B312B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35C4114-0BE0-804A-96EB-40BA0F35984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{9DF8881B-D06D-0846-BEE5-CCB34DBF0AD0}"/>
   </bookViews>
@@ -6412,8 +6412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DB255-9D86-DF46-82C2-AB3642BC0317}">
   <dimension ref="A1:J1831"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1076" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D734" sqref="D734:D1099"/>
+    <sheetView tabSelected="1" topLeftCell="A999" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I1024" sqref="I1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
